--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01142312_pw_edu_pl/Documents/PW/Semy/Sem6/DUW - Dynamika Układów Wieloczłonowych/1. Zadanie domowe - Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{99FB5DF6-719C-4379-ACAF-95E543358F3F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D51EF12-E87B-43F7-A56B-64DB7FE27B7E}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2520" windowWidth="14700" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="570" windowWidth="14700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Człony" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Człon i</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Współrzędne wierzchołka w LUW (każde 2 kolumny to współrzędne 1 wierzchołka)</t>
+  </si>
+  <si>
+    <t>Równania więzów kierujących (jeśli pusty to nie ma więzu)</t>
+  </si>
+  <si>
+    <t>2*sin(t^2)</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -476,15 +482,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45181185-FF85-438D-8A50-90C55268B8F3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,13 +509,16 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -518,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -546,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,6 +576,9 @@
       </c>
       <c r="G5">
         <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01142312_pw_edu_pl/Documents/PW/Semy/Sem6/DUW - Dynamika Układów Wieloczłonowych/1. Zadanie domowe - Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D51EF12-E87B-43F7-A56B-64DB7FE27B7E}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DADEC636C813AC809E43EA81C70E85BDEDD89" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5B55B224-012C-4FE2-8FE2-9E48E22402D3}"/>
   <bookViews>
     <workbookView xWindow="12285" yWindow="570" windowWidth="14700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>Równania więzów kierujących (jeśli pusty to nie ma więzu)</t>
   </si>
   <si>
-    <t>2*sin(t^2)</t>
+    <t>t^2+pi/2</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +526,9 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -576,9 +579,6 @@
       </c>
       <c r="G5">
         <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
